--- a/01.Schedule/進捗管理表.xlsx
+++ b/01.Schedule/進捗管理表.xlsx
@@ -506,7 +506,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -648,7 +648,7 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -955,7 +955,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1400,13 +1400,13 @@
       <c r="D20" s="13">
         <v>44300</v>
       </c>
-      <c r="E20" s="6" t="str">
+      <c r="E20" s="12">
         <f>IF(F20=100%,MAX(E21:E26),"")</f>
-        <v/>
+        <v>44300</v>
       </c>
       <c r="F20" s="9">
         <f>SUM(F21:F26)/COUNT(F21:F26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>56</v>
@@ -1426,9 +1426,11 @@
       <c r="D21" s="11">
         <v>44300</v>
       </c>
-      <c r="E21" s="1"/>
+      <c r="E21" s="11">
+        <v>44300</v>
+      </c>
       <c r="F21" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1446,9 +1448,11 @@
       <c r="D22" s="11">
         <v>44300</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="11">
+        <v>44300</v>
+      </c>
       <c r="F22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1"/>
     </row>
@@ -1466,9 +1470,11 @@
       <c r="D23" s="11">
         <v>44300</v>
       </c>
-      <c r="E23" s="1"/>
+      <c r="E23" s="11">
+        <v>44300</v>
+      </c>
       <c r="F23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -1486,9 +1492,11 @@
       <c r="D24" s="11">
         <v>44300</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="11">
+        <v>44300</v>
+      </c>
       <c r="F24" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="1"/>
     </row>
@@ -1506,9 +1514,11 @@
       <c r="D25" s="11">
         <v>44300</v>
       </c>
-      <c r="E25" s="1"/>
+      <c r="E25" s="11">
+        <v>44300</v>
+      </c>
       <c r="F25" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1526,9 +1536,11 @@
       <c r="D26" s="11">
         <v>44300</v>
       </c>
-      <c r="E26" s="1"/>
+      <c r="E26" s="11">
+        <v>44300</v>
+      </c>
       <c r="F26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1"/>
     </row>
@@ -1543,7 +1555,7 @@
       <c r="D27" s="13">
         <v>44301</v>
       </c>
-      <c r="E27" s="6" t="str">
+      <c r="E27" s="12" t="str">
         <f>IF(F27=100%,MAX(E28:E33),"")</f>
         <v/>
       </c>
@@ -1686,7 +1698,7 @@
       <c r="D34" s="13">
         <v>44302</v>
       </c>
-      <c r="E34" s="6" t="str">
+      <c r="E34" s="12" t="str">
         <f>IF(F34=100%,MAX(E35:E39),"")</f>
         <v/>
       </c>
@@ -1809,7 +1821,7 @@
       <c r="D40" s="13">
         <v>44305</v>
       </c>
-      <c r="E40" s="6" t="str">
+      <c r="E40" s="12" t="str">
         <f>IF(F40=100%,MAX(E41:E44),"")</f>
         <v/>
       </c>

--- a/01.Schedule/進捗管理表.xlsx
+++ b/01.Schedule/進捗管理表.xlsx
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1555,13 +1555,13 @@
       <c r="D27" s="13">
         <v>44301</v>
       </c>
-      <c r="E27" s="12" t="str">
+      <c r="E27" s="12">
         <f>IF(F27=100%,MAX(E28:E33),"")</f>
-        <v/>
+        <v>44301</v>
       </c>
       <c r="F27" s="9">
         <f>SUM(F28:F33)/COUNT(F28:F33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>57</v>
@@ -1581,9 +1581,11 @@
       <c r="D28" s="11">
         <v>44301</v>
       </c>
-      <c r="E28" s="1"/>
+      <c r="E28" s="11">
+        <v>44301</v>
+      </c>
       <c r="F28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1601,9 +1603,11 @@
       <c r="D29" s="11">
         <v>44301</v>
       </c>
-      <c r="E29" s="1"/>
+      <c r="E29" s="11">
+        <v>44301</v>
+      </c>
       <c r="F29" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1621,9 +1625,11 @@
       <c r="D30" s="11">
         <v>44301</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="11">
+        <v>44301</v>
+      </c>
       <c r="F30" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1641,9 +1647,11 @@
       <c r="D31" s="11">
         <v>44301</v>
       </c>
-      <c r="E31" s="1"/>
+      <c r="E31" s="11">
+        <v>44301</v>
+      </c>
       <c r="F31" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1661,9 +1669,11 @@
       <c r="D32" s="11">
         <v>44301</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="11">
+        <v>44301</v>
+      </c>
       <c r="F32" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1681,9 +1691,11 @@
       <c r="D33" s="11">
         <v>44301</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="11">
+        <v>44301</v>
+      </c>
       <c r="F33" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1"/>
     </row>

--- a/01.Schedule/進捗管理表.xlsx
+++ b/01.Schedule/進捗管理表.xlsx
@@ -954,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1710,13 +1710,13 @@
       <c r="D34" s="13">
         <v>44302</v>
       </c>
-      <c r="E34" s="12" t="str">
+      <c r="E34" s="12">
         <f>IF(F34=100%,MAX(E35:E39),"")</f>
-        <v/>
+        <v>44302</v>
       </c>
       <c r="F34" s="9">
         <f>SUM(F35:F39)/COUNT(F35:F39)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>58</v>
@@ -1736,9 +1736,11 @@
       <c r="D35" s="11">
         <v>44302</v>
       </c>
-      <c r="E35" s="1"/>
+      <c r="E35" s="11">
+        <v>44302</v>
+      </c>
       <c r="F35" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="1"/>
     </row>
@@ -1756,9 +1758,11 @@
       <c r="D36" s="11">
         <v>44302</v>
       </c>
-      <c r="E36" s="1"/>
+      <c r="E36" s="11">
+        <v>44302</v>
+      </c>
       <c r="F36" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1776,9 +1780,11 @@
       <c r="D37" s="11">
         <v>44302</v>
       </c>
-      <c r="E37" s="1"/>
+      <c r="E37" s="11">
+        <v>44302</v>
+      </c>
       <c r="F37" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1796,9 +1802,11 @@
       <c r="D38" s="11">
         <v>44302</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E38" s="11">
+        <v>44302</v>
+      </c>
       <c r="F38" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="1"/>
     </row>
@@ -1816,9 +1824,11 @@
       <c r="D39" s="11">
         <v>44302</v>
       </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="11">
+        <v>44302</v>
+      </c>
       <c r="F39" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="1"/>
     </row>

--- a/01.Schedule/進捗管理表.xlsx
+++ b/01.Schedule/進捗管理表.xlsx
@@ -955,7 +955,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1843,13 +1843,13 @@
       <c r="D40" s="13">
         <v>44305</v>
       </c>
-      <c r="E40" s="12" t="str">
+      <c r="E40" s="12">
         <f>IF(F40=100%,MAX(E41:E44),"")</f>
-        <v/>
+        <v>44305</v>
       </c>
       <c r="F40" s="9">
         <f>SUM(F41:F44)/COUNT(F41:F44)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>59</v>
@@ -1869,9 +1869,11 @@
       <c r="D41" s="11">
         <v>44305</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="11">
+        <v>44305</v>
+      </c>
       <c r="F41" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1889,9 +1891,11 @@
       <c r="D42" s="11">
         <v>44305</v>
       </c>
-      <c r="E42" s="1"/>
+      <c r="E42" s="11">
+        <v>44305</v>
+      </c>
       <c r="F42" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1909,9 +1913,11 @@
       <c r="D43" s="11">
         <v>44305</v>
       </c>
-      <c r="E43" s="1"/>
+      <c r="E43" s="11">
+        <v>44305</v>
+      </c>
       <c r="F43" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1929,9 +1935,11 @@
       <c r="D44" s="11">
         <v>44305</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="E44" s="11">
+        <v>44305</v>
+      </c>
       <c r="F44" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" s="1"/>
     </row>

--- a/01.Schedule/進捗管理表.xlsx
+++ b/01.Schedule/進捗管理表.xlsx
@@ -7,17 +7,19 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="教材" sheetId="1" r:id="rId1"/>
+    <sheet name="教材以外" sheetId="2" r:id="rId1"/>
+    <sheet name="教材" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">教材!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">教材!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">教材以外!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
   <si>
     <t>No</t>
     <phoneticPr fontId="2"/>
@@ -498,6 +500,116 @@
     <rPh sb="4" eb="6">
       <t>セイギョ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EC2を使ったWebサーバ構築</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IAMユーザ作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EC2インスタンスの生成</t>
+    <rPh sb="10" eb="12">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AMIの決定</t>
+    <rPh sb="4" eb="6">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストレージの追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EC2へのリモート接続</t>
+    <rPh sb="9" eb="11">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EC2の削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VPCの作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュリティグループの設定</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>過去問実施</t>
+    <rPh sb="0" eb="3">
+      <t>カコモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 回復性の高いアーキテクチャを設計する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パフォーマンスに優れたアーキテクチャを定義する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セキュアなアプリケーションおよびアーキテクチャを規定する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コスト最適化アーキテクチャを設計する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オペレーショナルエクセレンスを備えたアーキテクチャを定義する</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -575,7 +687,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -626,6 +738,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -633,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -650,6 +844,13 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
@@ -952,10 +1153,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="10">
+        <v>44306</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>IF(E2=100%,MAX(D3:D11),"")</f>
+        <v/>
+      </c>
+      <c r="E2" s="7">
+        <f>SUM(E3:E11)/COUNT(E3:E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="11">
+        <v>44306</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="15"/>
+      <c r="B4" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="11">
+        <v>44306</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="15"/>
+      <c r="B5" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="11">
+        <v>44306</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="15"/>
+      <c r="B6" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="11">
+        <v>44306</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="11">
+        <v>44306</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="15"/>
+      <c r="B8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="11">
+        <v>44306</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="15"/>
+      <c r="B9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="11">
+        <v>44306</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="15"/>
+      <c r="B10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="11">
+        <v>44306</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="16"/>
+      <c r="B11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="11">
+        <v>44306</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="13">
+        <v>44309</v>
+      </c>
+      <c r="D12" s="12" t="str">
+        <f>IF(E12=100%,MAX(D13:D17),"")</f>
+        <v/>
+      </c>
+      <c r="E12" s="9">
+        <f>SUM(E13:E17)/COUNT(E13:E17)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="11">
+        <v>44309</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="15"/>
+      <c r="B14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="11">
+        <v>44309</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="11">
+        <v>44309</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="11">
+        <v>44309</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="11">
+        <v>44309</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/01.Schedule/進捗管理表.xlsx
+++ b/01.Schedule/進捗管理表.xlsx
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1198,13 +1198,13 @@
       <c r="C2" s="10">
         <v>44306</v>
       </c>
-      <c r="D2" s="10" t="str">
+      <c r="D2" s="10">
         <f>IF(E2=100%,MAX(D3:D11),"")</f>
-        <v/>
+        <v>44306</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(E3:E11)/COUNT(E3:E11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -1216,9 +1216,11 @@
       <c r="C3" s="11">
         <v>44306</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11">
+        <v>44306</v>
+      </c>
       <c r="E3" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1230,9 +1232,11 @@
       <c r="C4" s="11">
         <v>44306</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11">
+        <v>44306</v>
+      </c>
       <c r="E4" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1"/>
     </row>
@@ -1244,9 +1248,11 @@
       <c r="C5" s="11">
         <v>44306</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11">
+        <v>44306</v>
+      </c>
       <c r="E5" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1"/>
     </row>
@@ -1258,9 +1264,11 @@
       <c r="C6" s="11">
         <v>44306</v>
       </c>
-      <c r="D6" s="11"/>
+      <c r="D6" s="11">
+        <v>44306</v>
+      </c>
       <c r="E6" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1"/>
     </row>
@@ -1272,9 +1280,11 @@
       <c r="C7" s="11">
         <v>44306</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11">
+        <v>44306</v>
+      </c>
       <c r="E7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1286,9 +1296,11 @@
       <c r="C8" s="11">
         <v>44306</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11">
+        <v>44306</v>
+      </c>
       <c r="E8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1300,9 +1312,11 @@
       <c r="C9" s="11">
         <v>44306</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11">
+        <v>44306</v>
+      </c>
       <c r="E9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1314,9 +1328,11 @@
       <c r="C10" s="11">
         <v>44306</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11">
+        <v>44306</v>
+      </c>
       <c r="E10" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1328,9 +1344,11 @@
       <c r="C11" s="11">
         <v>44306</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11">
+        <v>44306</v>
+      </c>
       <c r="E11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1"/>
     </row>

--- a/01.Schedule/進捗管理表.xlsx
+++ b/01.Schedule/進捗管理表.xlsx
@@ -593,10 +593,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> 回復性の高いアーキテクチャを設計する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>パフォーマンスに優れたアーキテクチャを定義する</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -610,6 +606,10 @@
   </si>
   <si>
     <t>オペレーショナルエクセレンスを備えたアーキテクチャを定義する</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回復性の高いアーキテクチャを設計する</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1368,77 +1368,77 @@
       </c>
       <c r="E12" s="9">
         <f>SUM(E13:E17)/COUNT(E13:E17)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C13" s="11">
         <v>44309</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="11">
         <v>44309</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="11">
         <v>44309</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C16" s="11">
         <v>44309</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="16"/>
       <c r="B17" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="11">
         <v>44309</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F17" s="1"/>
     </row>

--- a/01.Schedule/進捗管理表.xlsx
+++ b/01.Schedule/進捗管理表.xlsx
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="E12" s="9">
         <f>SUM(E13:E17)/COUNT(E13:E17)</f>
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="8">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="8">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="8">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="8">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="8">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="F17" s="1"/>
     </row>

--- a/01.Schedule/進捗管理表.xlsx
+++ b/01.Schedule/進捗管理表.xlsx
@@ -1156,7 +1156,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1362,13 +1362,13 @@
       <c r="C12" s="13">
         <v>44309</v>
       </c>
-      <c r="D12" s="12" t="str">
+      <c r="D12" s="12">
         <f>IF(E12=100%,MAX(D13:D17),"")</f>
-        <v/>
+        <v>44309</v>
       </c>
       <c r="E12" s="9">
         <f>SUM(E13:E17)/COUNT(E13:E17)</f>
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -1380,9 +1380,11 @@
       <c r="C13" s="11">
         <v>44309</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11">
+        <v>44309</v>
+      </c>
       <c r="E13" s="8">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1394,9 +1396,11 @@
       <c r="C14" s="11">
         <v>44309</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11">
+        <v>44309</v>
+      </c>
       <c r="E14" s="8">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1408,9 +1412,11 @@
       <c r="C15" s="11">
         <v>44309</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11">
+        <v>44309</v>
+      </c>
       <c r="E15" s="8">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1422,9 +1428,11 @@
       <c r="C16" s="11">
         <v>44309</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>44309</v>
+      </c>
       <c r="E16" s="8">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1"/>
     </row>
@@ -1436,9 +1444,11 @@
       <c r="C17" s="11">
         <v>44309</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11">
+        <v>44309</v>
+      </c>
       <c r="E17" s="8">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1"/>
     </row>
